--- a/Тест-кейсы.xlsx
+++ b/Тест-кейсы.xlsx
@@ -220,12 +220,6 @@
     <t>Ввод запроса с адресом дома</t>
   </si>
   <si>
-    <t>Ввод запроса с неправильно выбранной английской раскладкой клавиатуры</t>
-  </si>
-  <si>
-    <t>Ввод запроса с неправильно выбранной русской раскладкой клавиатуры</t>
-  </si>
-  <si>
     <t>1. Зайти на сайт www.vl.ru.       2. Нажать на значок лупы.        3. Выбрать поисковую строку.                               4. Ввести в поисковую строку запрос 'Давыдова 40'.                                        5. Нажать Enter.</t>
   </si>
   <si>
@@ -302,9 +296,6 @@
     <t>1. Зайти на сайт www.vl.ru.       2. Нажать на значок лупы.        3. Выбрать поисковую строку.                               4. Ввести в поисковую строку запрос 'ул. Давыдова'.                                        5. Нажать Enter.</t>
   </si>
   <si>
-    <t>Переход на вкладку с информацией о домах и компаниях, находящихся на улице Давыдова.</t>
-  </si>
-  <si>
     <t>1. Зайти на сайт www.vl.ru.       2. Нажать на значок лупы.        3. Выбрать поисковую строку.                               4. Ввести в поисковую строку запрос 'Восточная+Торговая+Компания'.                                        5. Нажать Enter.</t>
   </si>
   <si>
@@ -321,6 +312,15 @@
   </si>
   <si>
     <t>https://github.com/TakingAway/VLSearchTestProject</t>
+  </si>
+  <si>
+    <t>Ввод запроса на русском языке с английской раскладкой</t>
+  </si>
+  <si>
+    <t>Ввод запроса на английском языке с русской раскладкой</t>
+  </si>
+  <si>
+    <t>Переход на вкладку с информацией о домах и компаниях, находящихся на улице 'Давыдова'.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,6 +542,9 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,8 +557,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -840,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,21 +859,21 @@
     <col min="5" max="5" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.42578125" style="3" customWidth="1"/>
     <col min="9" max="9" width="36.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="15" t="s">
         <v>2</v>
       </c>
@@ -878,19 +884,19 @@
       <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>98</v>
+      <c r="H2" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -937,7 +943,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>36</v>
@@ -965,7 +971,7 @@
         <v>52</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>36</v>
@@ -1021,12 +1027,12 @@
         <v>41</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="12" t="s">
@@ -1052,7 +1058,7 @@
       <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="21"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="13" t="s">
         <v>37</v>
       </c>
@@ -1073,14 +1079,14 @@
         <v>43</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -1104,7 +1110,7 @@
       <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="14" t="s">
         <v>38</v>
       </c>
@@ -1122,10 +1128,10 @@
         <v>25</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>36</v>
@@ -1170,7 +1176,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>49</v>
@@ -1197,7 +1203,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>36</v>
@@ -1221,7 +1227,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>36</v>
@@ -1245,7 +1251,7 @@
         <v>53</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>36</v>
@@ -1263,13 +1269,13 @@
         <v>34</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>36</v>
@@ -1317,7 +1323,7 @@
         <v>59</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>37</v>
@@ -1328,22 +1334,22 @@
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="11">
         <v>17</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>37</v>
       </c>
       <c r="G20" s="8"/>
@@ -1365,7 +1371,7 @@
         <v>61</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>37</v>
@@ -1389,7 +1395,7 @@
         <v>62</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>36</v>
@@ -1426,17 +1432,17 @@
       <c r="B24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>66</v>
+      <c r="C24" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="105" x14ac:dyDescent="0.25">
@@ -1446,17 +1452,17 @@
       <c r="B25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>67</v>
+      <c r="C25" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="105" x14ac:dyDescent="0.25">
@@ -1470,10 +1476,10 @@
         <v>65</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>36</v>
@@ -1487,13 +1493,13 @@
         <v>34</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>91</v>
-      </c>
       <c r="E27" s="11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>36</v>
@@ -1507,13 +1513,13 @@
         <v>34</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="E28" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>36</v>
